--- a/teaching/traditional_assets/database/data/estonia/estonia_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/estonia/estonia_investments_asset_management.xlsx
@@ -590,29 +590,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.198</v>
-      </c>
-      <c r="E2">
-        <v>-0.375</v>
-      </c>
       <c r="G2">
-        <v>0.382608695652174</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.382608695652174</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4231884057971014</v>
+        <v>1.003448275862069</v>
       </c>
       <c r="J2">
-        <v>0.4187801932367149</v>
+        <v>1.003448275862069</v>
       </c>
       <c r="K2">
-        <v>0.102</v>
+        <v>-0.08800000000000002</v>
       </c>
       <c r="L2">
-        <v>0.2956521739130435</v>
+        <v>-0.303448275862069</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -621,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,37 +624,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.039</v>
+        <v>0.014</v>
       </c>
       <c r="V2">
-        <v>0.01497695852534562</v>
-      </c>
-      <c r="W2">
-        <v>0.0090935601725504</v>
+        <v>0.003131991051454138</v>
       </c>
       <c r="X2">
-        <v>0.05157419919816474</v>
-      </c>
-      <c r="Y2">
-        <v>-0.04248063902561434</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Z2">
-        <v>0.05413463047230504</v>
-      </c>
-      <c r="AA2">
-        <v>0.0216145380160297</v>
+        <v>0.05331862474719618</v>
       </c>
       <c r="AB2">
-        <v>0.05157419919816474</v>
-      </c>
-      <c r="AC2">
-        <v>-0.02995966118213503</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -672,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.039</v>
+        <v>-0.014</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -681,25 +663,22 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.0152046783625731</v>
+        <v>-0.003141831238779174</v>
       </c>
       <c r="AK2">
-        <v>-0.004767143381004767</v>
+        <v>-0.002604166666666667</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.171</v>
       </c>
       <c r="AM2">
-        <v>-0.006</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>-0.3611111111111111</v>
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="AO2">
+        <v>1.701754385964912</v>
       </c>
       <c r="AQ2">
-        <v>-24.33333333333333</v>
+        <v>9.699999999999992</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +689,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Investment Friends Capital SE (WSE:IFC)</t>
+          <t>Investment Friends SE (WSE:IFR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,29 +697,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.189</v>
-      </c>
-      <c r="E3">
-        <v>-0.375</v>
-      </c>
       <c r="G3">
-        <v>0.9565217391304347</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9565217391304347</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7753623188405796</v>
+        <v>1.090322580645161</v>
       </c>
       <c r="J3">
-        <v>0.7592089371980675</v>
+        <v>1.090322580645161</v>
       </c>
       <c r="K3">
-        <v>0.093</v>
+        <v>0.143</v>
       </c>
       <c r="L3">
-        <v>0.6739130434782608</v>
+        <v>0.9225806451612902</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,31 +737,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01597938144329897</v>
-      </c>
-      <c r="W3">
-        <v>0.01514657980456026</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.05157419919816474</v>
-      </c>
-      <c r="Y3">
-        <v>-0.03642761939360448</v>
-      </c>
-      <c r="Z3">
-        <v>0.03854748603351956</v>
-      </c>
-      <c r="AA3">
-        <v>0.02926559590316574</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AB3">
-        <v>0.05157419919816474</v>
-      </c>
-      <c r="AC3">
-        <v>-0.022308603294999</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -800,34 +758,19 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.031</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
       <c r="AJ3">
-        <v>-0.01623886851754846</v>
-      </c>
-      <c r="AK3">
-        <v>-0.005699577128148557</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.006</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>-0.287037037037037</v>
-      </c>
-      <c r="AQ3">
-        <v>-17.83333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +781,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Investment Friends SE (WSE:IFR)</t>
+          <t>Investment Friends Capital SE (WSE:IFC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -846,9 +789,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D4">
-        <v>-0.585</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -856,16 +796,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1884057971014493</v>
+        <v>0.9037037037037037</v>
       </c>
       <c r="J4">
-        <v>0.1884057971014493</v>
+        <v>0.9037037037037037</v>
       </c>
       <c r="K4">
-        <v>0.008999999999999999</v>
+        <v>-0.231</v>
       </c>
       <c r="L4">
-        <v>0.04347826086956522</v>
+        <v>-1.711111111111111</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,7 +814,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -883,37 +823,37 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="V4">
-        <v>0.01204819277108434</v>
+        <v>0.00417910447761194</v>
       </c>
       <c r="W4">
-        <v>0.00304054054054054</v>
+        <v>-0.04223034734917733</v>
       </c>
       <c r="X4">
-        <v>0.05157419919816474</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y4">
-        <v>-0.0485336586576242</v>
+        <v>-0.08122204158759144</v>
       </c>
       <c r="Z4">
-        <v>0.07411385606874328</v>
+        <v>0.02482073910645339</v>
       </c>
       <c r="AA4">
-        <v>0.01396348012889366</v>
+        <v>0.02243059385916529</v>
       </c>
       <c r="AB4">
-        <v>0.05157419919816474</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC4">
-        <v>-0.03761071906927108</v>
+        <v>-0.01656110037924882</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -925,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.008</v>
+        <v>-0.014</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -934,16 +874,22 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.01219512195121951</v>
+        <v>-0.004196642685851319</v>
       </c>
       <c r="AK4">
-        <v>-0.002917578409919767</v>
+        <v>-0.002604166666666667</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.171</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="AO4">
+        <v>0.7134502923976608</v>
+      </c>
+      <c r="AQ4">
+        <v>4.066666666666663</v>
       </c>
     </row>
   </sheetData>
